--- a/BalanceSheet/AMD_bal.xlsx
+++ b/BalanceSheet/AMD_bal.xlsx
@@ -504,19 +504,19 @@
         </is>
       </c>
       <c r="B4" s="0" t="n">
-        <v>-254000000.0</v>
+        <v>1653000000.0</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>-107000000.0</v>
+        <v>1399000000.0</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>32000000.0</v>
+        <v>1292000000.0</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>-268000000.0</v>
+        <v>1324000000.0</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>-74000000.0</v>
+        <v>1056000000.0</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>982000000.0</v>
@@ -2067,19 +2067,19 @@
         </is>
       </c>
       <c r="B15" s="0" t="n">
-        <v>428000000.0</v>
+        <v>989000000.0</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>-536000000.0</v>
+        <v>546000000.0</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>205000000.0</v>
+        <v>867000000.0</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>273000000.0</v>
+        <v>994000000.0</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>-455000000.0</v>
+        <v>840000000.0</v>
       </c>
       <c r="G15" s="0" t="n">
         <v>1201000000.0</v>
@@ -3054,10 +3054,10 @@
         </is>
       </c>
       <c r="B22" s="0" t="n">
-        <v>73000000.0</v>
+        <v>-1162000000.0</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>-1223000000.0</v>
+        <v>-1234000000.0</v>
       </c>
       <c r="D22" s="0" t="inlineStr">
         <is>
@@ -4794,7 +4794,7 @@
         <v>-690000000.0</v>
       </c>
       <c r="G35" s="0" t="n">
-        <v>-779000000.0</v>
+        <v>-974000000.0</v>
       </c>
       <c r="H35" s="0" t="n">
         <v>-337000000.0</v>
@@ -4921,7 +4921,7 @@
         <v>699000000.0</v>
       </c>
       <c r="G36" s="0" t="n">
-        <v>728000000.0</v>
+        <v>529000000.0</v>
       </c>
       <c r="H36" s="0" t="n">
         <v>872000000.0</v>
